--- a/form-data.xlsx
+++ b/form-data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -701,9 +701,32 @@
         <v>po</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Shikuku Emmanuel</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Nabwana</v>
+      </c>
+      <c r="C14" t="str">
+        <v>CALATECH</v>
+      </c>
+      <c r="D14" t="str">
+        <v>agile</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0757003013</v>
+      </c>
+      <c r="F14" t="str">
+        <v>enshikuku@gmail.com</v>
+      </c>
+      <c r="G14" t="str">
+        <v>gfgfg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/form-data.xlsx
+++ b/form-data.xlsx
@@ -397,32 +397,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>first-name</v>
+        <v>First_Name</v>
       </c>
       <c r="B1" t="str">
-        <v>last-name</v>
+        <v>Last_Name</v>
       </c>
       <c r="C1" t="str">
-        <v>company</v>
+        <v>Company</v>
       </c>
       <c r="D1" t="str">
-        <v>industry</v>
+        <v>Industry</v>
       </c>
       <c r="E1" t="str">
-        <v>phone</v>
-      </c>
-      <c r="F1" t="str">
-        <v>email</v>
-      </c>
-      <c r="G1" t="str">
-        <v>department</v>
+        <v>Job_Title</v>
       </c>
     </row>
     <row r="2">
@@ -433,19 +427,13 @@
         <v>Nabwana</v>
       </c>
       <c r="C2" t="str">
-        <v>CALATECH</v>
+        <v>Agile</v>
       </c>
       <c r="D2" t="str">
-        <v>das</v>
+        <v>Marketing</v>
       </c>
       <c r="E2" t="str">
-        <v>0757003013</v>
-      </c>
-      <c r="F2" t="str">
-        <v>enshikuku@gmail.com</v>
-      </c>
-      <c r="G2" t="str">
-        <v>das</v>
+        <v>Online Marketer</v>
       </c>
     </row>
     <row r="3">
@@ -456,19 +444,13 @@
         <v>Nabwana</v>
       </c>
       <c r="C3" t="str">
-        <v>CALATECH</v>
+        <v>Agile</v>
       </c>
       <c r="D3" t="str">
-        <v>das</v>
+        <v>HR</v>
       </c>
       <c r="E3" t="str">
-        <v>0757003013</v>
-      </c>
-      <c r="F3" t="str">
-        <v>enshikuku@gmail.com</v>
-      </c>
-      <c r="G3" t="str">
-        <v>das</v>
+        <v>HR manager</v>
       </c>
     </row>
     <row r="4">
@@ -479,19 +461,13 @@
         <v>Nabwana</v>
       </c>
       <c r="C4" t="str">
-        <v>CALATECH</v>
+        <v>Agile</v>
       </c>
       <c r="D4" t="str">
-        <v>das</v>
+        <v>HR</v>
       </c>
       <c r="E4" t="str">
-        <v>0757003013</v>
-      </c>
-      <c r="F4" t="str">
-        <v>enshikuku@gmail.com</v>
-      </c>
-      <c r="G4" t="str">
-        <v>das</v>
+        <v>HR manager</v>
       </c>
     </row>
     <row r="5">
@@ -502,19 +478,13 @@
         <v>Nabwana</v>
       </c>
       <c r="C5" t="str">
-        <v>CALATECH</v>
+        <v>Agile</v>
       </c>
       <c r="D5" t="str">
-        <v>das</v>
+        <v>HR</v>
       </c>
       <c r="E5" t="str">
-        <v>0757003013</v>
-      </c>
-      <c r="F5" t="str">
-        <v>enshikuku@gmail.com</v>
-      </c>
-      <c r="G5" t="str">
-        <v>das</v>
+        <v>HR manager</v>
       </c>
     </row>
     <row r="6">
@@ -525,208 +495,18 @@
         <v>Nabwana</v>
       </c>
       <c r="C6" t="str">
-        <v>CALATECH</v>
+        <v>Agile</v>
       </c>
       <c r="D6" t="str">
-        <v>das</v>
+        <v>HR</v>
       </c>
       <c r="E6" t="str">
-        <v>0757003013</v>
-      </c>
-      <c r="F6" t="str">
-        <v>enshikuku@gmail.com</v>
-      </c>
-      <c r="G6" t="str">
-        <v>das</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C7" t="str">
-        <v>CALATECH</v>
-      </c>
-      <c r="D7" t="str">
-        <v>das</v>
-      </c>
-      <c r="E7" t="str">
-        <v>0757003013</v>
-      </c>
-      <c r="F7" t="str">
-        <v>enshikuku@gmail.com</v>
-      </c>
-      <c r="G7" t="str">
-        <v>das</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C8" t="str">
-        <v>CALATECH</v>
-      </c>
-      <c r="D8" t="str">
-        <v>das</v>
-      </c>
-      <c r="E8" t="str">
-        <v>0757003013</v>
-      </c>
-      <c r="F8" t="str">
-        <v>enshikuku@gmail.com</v>
-      </c>
-      <c r="G8" t="str">
-        <v>das</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C9" t="str">
-        <v>CALATECH</v>
-      </c>
-      <c r="D9" t="str">
-        <v>das</v>
-      </c>
-      <c r="E9" t="str">
-        <v>0757003013</v>
-      </c>
-      <c r="F9" t="str">
-        <v>enshikuku@gmail.com</v>
-      </c>
-      <c r="G9" t="str">
-        <v>das</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C10" t="str">
-        <v>CALATECH</v>
-      </c>
-      <c r="D10" t="str">
-        <v>das</v>
-      </c>
-      <c r="E10" t="str">
-        <v>0757003013</v>
-      </c>
-      <c r="F10" t="str">
-        <v>enshikuku@gmail.com</v>
-      </c>
-      <c r="G10" t="str">
-        <v>das</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C11" t="str">
-        <v>CALATECH</v>
-      </c>
-      <c r="D11" t="str">
-        <v>das</v>
-      </c>
-      <c r="E11" t="str">
-        <v>0757003013</v>
-      </c>
-      <c r="F11" t="str">
-        <v>enshikuku@gmail.com</v>
-      </c>
-      <c r="G11" t="str">
-        <v>das</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C12" t="str">
-        <v>CALATECH</v>
-      </c>
-      <c r="D12" t="str">
-        <v>das</v>
-      </c>
-      <c r="E12" t="str">
-        <v>0757003013</v>
-      </c>
-      <c r="F12" t="str">
-        <v>enshikuku@gmail.com</v>
-      </c>
-      <c r="G12" t="str">
-        <v>das</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C13" t="str">
-        <v>CALATECH</v>
-      </c>
-      <c r="D13" t="str">
-        <v>agile</v>
-      </c>
-      <c r="E13" t="str">
-        <v>0757003013</v>
-      </c>
-      <c r="F13" t="str">
-        <v>enshikuku@gmail.com</v>
-      </c>
-      <c r="G13" t="str">
-        <v>po</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C14" t="str">
-        <v>CALATECH</v>
-      </c>
-      <c r="D14" t="str">
-        <v>agile</v>
-      </c>
-      <c r="E14" t="str">
-        <v>0757003013</v>
-      </c>
-      <c r="F14" t="str">
-        <v>enshikuku@gmail.com</v>
-      </c>
-      <c r="G14" t="str">
-        <v>gfgfg</v>
+        <v>HR manager</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/form-data.xlsx
+++ b/form-data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -504,9 +504,26 @@
         <v>HR manager</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Shikuku Emmanuel</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Nabwana</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Agile</v>
+      </c>
+      <c r="D7" t="str">
+        <v>HR</v>
+      </c>
+      <c r="E7" t="str">
+        <v>HR manager</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/form-data.xlsx
+++ b/form-data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -521,9 +521,26 @@
         <v>HR manager</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Shikuku Emmanuel</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Nabwana</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Kenyan</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Marketing</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/form-data.xlsx
+++ b/form-data.xlsx
@@ -1,41 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enshi\OneDrive\Documents\Work\SAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318C92DA-0755-4BAB-A767-0C2AC8208083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +78,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,151 +410,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="A2:V8"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>First_Name</v>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="str">
-        <v>Last_Name</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="str">
-        <v>Company</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" t="str">
-        <v>Industry</v>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" t="str">
-        <v>Job_Title</v>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Agile</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Marketing</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Online Marketer</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Agile</v>
-      </c>
-      <c r="D3" t="str">
-        <v>HR</v>
-      </c>
-      <c r="E3" t="str">
-        <v>HR manager</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Agile</v>
-      </c>
-      <c r="D4" t="str">
-        <v>HR</v>
-      </c>
-      <c r="E4" t="str">
-        <v>HR manager</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Agile</v>
-      </c>
-      <c r="D5" t="str">
-        <v>HR</v>
-      </c>
-      <c r="E5" t="str">
-        <v>HR manager</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Agile</v>
-      </c>
-      <c r="D6" t="str">
-        <v>HR</v>
-      </c>
-      <c r="E6" t="str">
-        <v>HR manager</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Agile</v>
-      </c>
-      <c r="D7" t="str">
-        <v>HR</v>
-      </c>
-      <c r="E7" t="str">
-        <v>HR manager</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Shikuku Emmanuel</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Nabwana</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Kenyan</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Marketing</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Marketing</v>
-      </c>
-    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
+    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/form-data.xlsx
+++ b/form-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enshi\OneDrive\Documents\Work\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318C92DA-0755-4BAB-A767-0C2AC8208083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA568AD2-36D5-467A-B2D5-627B74B4CA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>First_Name</t>
-  </si>
-  <si>
-    <t>Last_Name</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Job_Title</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,42 +395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:V8"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="2" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="3" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>